--- a/Exercises/Perfect_Doctor.xlsx
+++ b/Exercises/Perfect_Doctor.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Mixtape_tracks/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Google Drive\Martin\Estudios\Doctorado\Permanent Education\Causal Inference\biblio\github\Causal-Inference\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C66E6-8AA4-6B4D-95EB-BCF49F3E42BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D650C928-7985-49CF-A300-32E43CBBEAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1060" windowWidth="24840" windowHeight="25820" activeTab="1" xr2:uid="{083BD555-0A53-1B4B-AE70-5F7A5361EDB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{083BD555-0A53-1B4B-AE70-5F7A5361EDB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Exercise" sheetId="3" r:id="rId1"/>
+    <sheet name="Example" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
   <si>
     <t>Person</t>
   </si>
@@ -120,12 +124,96 @@
   </si>
   <si>
     <t>Avg(Y |D=1) - Avg(Y |D=0)</t>
+  </si>
+  <si>
+    <t>colD</t>
+  </si>
+  <si>
+    <t>Perfect doctor: knows best treatment for each person (D=1 if TE&gt;0)</t>
+  </si>
+  <si>
+    <t>colE</t>
+  </si>
+  <si>
+    <t>colC-colB</t>
+  </si>
+  <si>
+    <t>if(colD&gt;0,1,0)</t>
+  </si>
+  <si>
+    <t>Apply switching eq to each unit</t>
+  </si>
+  <si>
+    <t>colF</t>
+  </si>
+  <si>
+    <t>colE*colC + (1-colE)*colB</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>mean(colC) - mean(colB)</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>mean(colD | colE=1)</t>
+  </si>
+  <si>
+    <t>mean(colD | colE=0)</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>mean(colF | colE=1) - mean(colF | colE=0)</t>
+  </si>
+  <si>
+    <t>SDO =</t>
+  </si>
+  <si>
+    <t>ATE + selection bias + heterogenous treatment effect bias</t>
+  </si>
+  <si>
+    <t>Calculate individual TE for each unit</t>
+  </si>
+  <si>
+    <t>Calculate SDO thru formula</t>
+  </si>
+  <si>
+    <t>ATE + hTEbias</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -258,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -275,6 +363,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,379 +734,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72EDE92-11F1-504D-AA85-77E1FD099BAB}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FA9DF7-AF06-4773-92BA-99248974AFFE}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="57.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="27">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="28">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="29">
         <f>C2-B2</f>
         <v>-4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="30">
+        <f>IF(D2&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="30">
         <f>E2*C2+(1-E2)*B2</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="30">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="27">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="28">
+        <v>8</v>
+      </c>
+      <c r="D3" s="29">
         <f t="shared" ref="D3:D13" si="0">C3-B3</f>
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="1">E3*C3+(1-E3)*B3</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="30">
+        <f t="shared" ref="E3:E13" si="1">IF(D3&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F13" si="2">E3*C3+(1-E3)*B3</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="30">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="27">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="28">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="29">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="F4" s="30">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="30">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="27">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="28">
+        <v>8</v>
+      </c>
+      <c r="D5" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="30">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="27">
+        <v>8</v>
+      </c>
+      <c r="C6" s="28">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="29">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="27">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="28">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="29">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
+      <c r="F7" s="30">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="28">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
+      <c r="F8" s="30">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="30">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="27">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
+      <c r="F9" s="30">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="30">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="28">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="28">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="27">
+        <v>8</v>
+      </c>
+      <c r="C12" s="28">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="29">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="27">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="28">
+        <v>8</v>
+      </c>
+      <c r="D13" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <f>AVERAGE(F3,F5,F10:F11,F13) - AVERAGE(F2,F4,F6:F9,F12)</f>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <f>AVERAGEIF(E2:E13,1,F2:F13)-AVERAGEIF(E2:E13,0,F2:F13)</f>
         <v>1.3428571428571425</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <f>AVERAGE(B3,B5,B10:B11,B13)</f>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
+        <f>AVERAGEIF(E2:E13,1,B2:B13)</f>
         <v>3</v>
       </c>
-      <c r="B20" s="13">
-        <f>AVERAGE(B2,B4,B6:B9,B12)</f>
+      <c r="B20" s="31">
+        <f>AVERAGEIF(E2:E13,0,B2:B13)</f>
         <v>6.8571428571428568</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="33">
         <f>SUM(E2:E13)/COUNT(E2:E13)</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="D20" s="15">
-        <f>AVERAGE(D3,D5,D10:D11,D13)</f>
+      <c r="D20" s="32">
+        <f>AVERAGEIF(E2:E13,1,D2:D13)</f>
         <v>5.2</v>
       </c>
-      <c r="E20" s="13">
-        <f>AVERAGE(D2,D4,D6:D9,D12)</f>
+      <c r="E20" s="31">
+        <f>AVERAGEIF(E2:E13,0,D2:D13)</f>
         <v>-3.2857142857142856</v>
       </c>
-      <c r="F20" s="9">
-        <f>AVERAGE(D2:D13)</f>
+      <c r="F20" s="18">
+        <f>AVERAGE(C2:C13)-AVERAGE(B2:B13)</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f>F20+ A20-B20+(1-C20)*(D20-E20)</f>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="35">
+        <f>F20+(A20-B20)+(1-C20)*(D20-E20)</f>
         <v>1.3428571428571425</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>F20</f>
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="34">
+        <f>+(A20-B20)</f>
+        <v>-3.8571428571428568</v>
+      </c>
+      <c r="D23">
+        <f>+(1-C20)*(D20-E20)</f>
+        <v>4.9499999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -969,16 +1271,958 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3E076A-7792-4A4F-92CE-1426DF6634FA}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="57.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="27">
+        <f ca="1">RANDBETWEEN(25,50)</f>
+        <v>38</v>
+      </c>
+      <c r="C2" s="28">
+        <f ca="1">RANDBETWEEN(20,55)</f>
+        <v>51</v>
+      </c>
+      <c r="D2" s="29">
+        <f ca="1">C2-B2</f>
+        <v>13</v>
+      </c>
+      <c r="E2" s="30">
+        <f ca="1">IF(D2&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="30">
+        <f ca="1">E2*C2+(1-E2)*B2</f>
+        <v>51</v>
+      </c>
+      <c r="H2" s="30">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27">
+        <f t="shared" ref="B3:B13" ca="1" si="0">RANDBETWEEN(25,50)</f>
+        <v>26</v>
+      </c>
+      <c r="C3" s="28">
+        <f t="shared" ref="C3:C13" ca="1" si="1">RANDBETWEEN(20,55)</f>
+        <v>39</v>
+      </c>
+      <c r="D3" s="29">
+        <f t="shared" ref="D3:D13" ca="1" si="2">C3-B3</f>
+        <v>13</v>
+      </c>
+      <c r="E3" s="30">
+        <f t="shared" ref="E3:E13" ca="1" si="3">IF(D3&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F13" ca="1" si="4">E3*C3+(1-E3)*B3</f>
+        <v>39</v>
+      </c>
+      <c r="H3" s="30">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C4" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D4" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="H4" s="30">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D5" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="H5" s="30">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C6" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D6" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C7" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C8" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D8" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="H8" s="30">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="30">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C10" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D11" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C12" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D12" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <f ca="1">AVERAGEIF(E2:E13,1,F2:F13)-AVERAGEIF(E2:E13,0,F2:F13)</f>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
+        <f ca="1">AVERAGEIF(E2:E13,1,B2:B13)</f>
+        <v>34.5</v>
+      </c>
+      <c r="B20" s="31">
+        <f ca="1">AVERAGEIF(E2:E13,0,B2:B13)</f>
+        <v>37.5</v>
+      </c>
+      <c r="C20" s="33">
+        <f ca="1">SUM(E2:E13)/COUNT(E2:E13)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D20" s="32">
+        <f ca="1">AVERAGEIF(E2:E13,1,D2:D13)</f>
+        <v>9.6</v>
+      </c>
+      <c r="E20" s="31">
+        <f ca="1">AVERAGEIF(E2:E13,0,D2:D13)</f>
+        <v>-13</v>
+      </c>
+      <c r="F20" s="16">
+        <f ca="1">AVERAGE(C2:C13)-AVERAGE(B2:B13)</f>
+        <v>5.8333333333333357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="35">
+        <f ca="1">F20+(A20-B20)+(1-C20)*(D20-E20)</f>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="B23" s="35">
+        <f ca="1">F20</f>
+        <v>5.8333333333333357</v>
+      </c>
+      <c r="C23" s="35">
+        <f ca="1">+(A20-B20)</f>
+        <v>-3</v>
+      </c>
+      <c r="D23" s="35">
+        <f ca="1">+(1-C20)*(D20-E20)</f>
+        <v>3.7666666666666662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72EDE92-11F1-504D-AA85-77E1FD099BAB}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2-B2</f>
+        <v>-4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*C2+(1-E2)*B2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">E3*C3+(1-E3)*B3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <f>AVERAGE(F3,F5,F10:F11,F13) - AVERAGE(F2,F4,F6:F9,F12)</f>
+        <v>1.3428571428571425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <f>AVERAGE(B3,B5,B10:B11,B13)</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="13">
+        <f>AVERAGE(B2,B4,B6:B9,B12)</f>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="C20" s="12">
+        <f>SUM(E2:E13)/COUNT(E2:E13)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D20" s="15">
+        <f>AVERAGE(D3,D5,D10:D11,D13)</f>
+        <v>5.2</v>
+      </c>
+      <c r="E20" s="13">
+        <f>AVERAGE(D2,D4,D6:D9,D12)</f>
+        <v>-3.2857142857142856</v>
+      </c>
+      <c r="F20" s="9">
+        <f>AVERAGE(D2:D13)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>F20+ A20-B20+(1-C20)*(D20-E20)</f>
+        <v>1.3428571428571425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F0CAF-38BA-064D-B720-EB93DBD0638C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +2242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1008,9 +2252,12 @@
       <c r="C2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="7">
+        <f>B2-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +2269,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +2281,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +2293,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +2305,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +2317,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +2329,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +2341,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +2353,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +2365,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +2377,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
